--- a/inst/extdata/examples/xlsx/geo-participatie-gemeenten.xlsx
+++ b/inst/extdata/examples/xlsx/geo-participatie-gemeenten.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t xml:space="preserve">tab</t>
   </si>
@@ -39,10 +39,16 @@
     <t xml:space="preserve">Jaar 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">geo_cbs_map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gemeente_2018</t>
+    <t xml:space="preserve">cbs_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gemeente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbs_map_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -1596,7 +1602,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1614,15 +1628,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1630,7 +1644,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1638,7 +1652,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1646,7 +1660,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1654,7 +1668,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1662,7 +1676,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1670,7 +1684,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1678,7 +1692,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1686,7 +1700,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -1694,7 +1708,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1702,7 +1716,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -1710,7 +1724,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -1718,7 +1732,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -1726,7 +1740,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -1734,7 +1748,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -1742,7 +1756,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -1750,7 +1764,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -1758,7 +1772,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -1766,7 +1780,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -1774,7 +1788,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -1782,7 +1796,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1790,7 +1804,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -1798,7 +1812,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -1806,7 +1820,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1814,7 +1828,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -1822,7 +1836,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -1830,7 +1844,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -1838,7 +1852,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1846,7 +1860,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1854,7 +1868,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -1862,7 +1876,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -1870,7 +1884,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -1878,7 +1892,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -1886,7 +1900,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1894,7 +1908,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1902,7 +1916,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1910,7 +1924,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -1918,7 +1932,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1926,7 +1940,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -1934,7 +1948,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1942,7 +1956,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -1950,7 +1964,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -1958,7 +1972,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1966,7 +1980,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -1974,7 +1988,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -1982,7 +1996,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1990,7 +2004,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -1998,7 +2012,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -2006,7 +2020,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -2014,7 +2028,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -2022,7 +2036,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -2030,7 +2044,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -2038,7 +2052,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -2046,7 +2060,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -2054,7 +2068,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -2062,7 +2076,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -2070,7 +2084,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -2078,7 +2092,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -2086,7 +2100,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -2094,7 +2108,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -2102,7 +2116,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2110,7 +2124,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -2118,7 +2132,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -2126,7 +2140,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -2134,7 +2148,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -2142,7 +2156,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -2150,7 +2164,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -2158,7 +2172,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -2166,7 +2180,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -2174,7 +2188,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -2182,7 +2196,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -2190,7 +2204,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -2198,7 +2212,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -2206,7 +2220,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -2214,7 +2228,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -2222,7 +2236,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -2230,7 +2244,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -2238,7 +2252,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -2246,7 +2260,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -2254,7 +2268,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -2262,7 +2276,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -2270,7 +2284,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -2278,7 +2292,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -2286,7 +2300,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -2294,7 +2308,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -2302,7 +2316,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -2310,7 +2324,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -2318,7 +2332,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -2326,7 +2340,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -2334,7 +2348,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -2342,7 +2356,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -2350,7 +2364,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -2358,7 +2372,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -2366,7 +2380,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -2374,7 +2388,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -2382,7 +2396,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -2390,7 +2404,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -2398,7 +2412,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -2406,7 +2420,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -2414,7 +2428,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -2422,7 +2436,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -2430,7 +2444,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -2438,7 +2452,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -2446,7 +2460,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -2454,7 +2468,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -2462,7 +2476,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -2470,7 +2484,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -2478,7 +2492,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -2486,7 +2500,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -2494,7 +2508,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -2502,7 +2516,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -2510,7 +2524,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -2518,7 +2532,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -2526,7 +2540,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -2534,7 +2548,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -2542,7 +2556,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -2550,7 +2564,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -2558,7 +2572,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -2566,7 +2580,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -2574,7 +2588,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -2582,7 +2596,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -2590,7 +2604,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -2598,7 +2612,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -2606,7 +2620,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2614,7 +2628,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -2622,7 +2636,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -2630,7 +2644,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2638,7 +2652,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2646,7 +2660,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -2654,7 +2668,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2662,7 +2676,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -2670,7 +2684,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2678,7 +2692,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2686,7 +2700,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2694,7 +2708,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -2702,7 +2716,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -2710,7 +2724,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -2718,7 +2732,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -2726,7 +2740,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2734,7 +2748,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -2742,7 +2756,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -2750,7 +2764,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -2758,7 +2772,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -2766,7 +2780,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -2774,7 +2788,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -2782,7 +2796,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -2790,7 +2804,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -2798,7 +2812,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -2806,7 +2820,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -2814,7 +2828,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -2822,7 +2836,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -2830,7 +2844,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -2838,7 +2852,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -2846,7 +2860,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -2854,7 +2868,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -2862,7 +2876,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -2870,7 +2884,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -2878,7 +2892,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -2886,7 +2900,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -2894,7 +2908,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -2902,7 +2916,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -2910,7 +2924,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -2918,7 +2932,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -2926,7 +2940,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -2934,7 +2948,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -2942,7 +2956,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -2950,7 +2964,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -2958,7 +2972,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -2966,7 +2980,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -2974,7 +2988,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -2982,7 +2996,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -2990,7 +3004,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -2998,7 +3012,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -3006,7 +3020,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -3014,7 +3028,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -3022,7 +3036,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -3030,7 +3044,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -3038,7 +3052,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -3046,7 +3060,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -3054,7 +3068,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -3062,7 +3076,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -3070,7 +3084,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -3078,7 +3092,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -3086,7 +3100,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -3094,7 +3108,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -3102,7 +3116,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -3110,7 +3124,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -3118,7 +3132,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -3126,7 +3140,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -3134,7 +3148,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -3142,7 +3156,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -3150,7 +3164,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
@@ -3158,7 +3172,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -3166,7 +3180,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -3174,7 +3188,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -3182,7 +3196,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -3190,7 +3204,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -3198,7 +3212,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -3206,7 +3220,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -3214,7 +3228,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -3222,7 +3236,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
@@ -3230,7 +3244,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
@@ -3238,7 +3252,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
@@ -3246,7 +3260,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -3254,7 +3268,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -3262,7 +3276,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B207" t="n">
         <v>0</v>
@@ -3270,7 +3284,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -3278,7 +3292,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -3286,7 +3300,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -3294,7 +3308,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -3302,7 +3316,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -3310,7 +3324,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -3318,7 +3332,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
@@ -3326,7 +3340,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -3334,7 +3348,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -3342,7 +3356,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -3350,7 +3364,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -3358,7 +3372,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B219" t="n">
         <v>1</v>
@@ -3366,7 +3380,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B220" t="n">
         <v>0</v>
@@ -3374,7 +3388,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B221" t="n">
         <v>0</v>
@@ -3382,7 +3396,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B222" t="n">
         <v>0</v>
@@ -3390,7 +3404,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
@@ -3398,7 +3412,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B224" t="n">
         <v>0</v>
@@ -3406,7 +3420,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B225" t="n">
         <v>0</v>
@@ -3414,7 +3428,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
@@ -3422,7 +3436,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -3430,7 +3444,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B228" t="n">
         <v>0</v>
@@ -3438,7 +3452,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B229" t="n">
         <v>0</v>
@@ -3446,7 +3460,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B230" t="n">
         <v>1</v>
@@ -3454,7 +3468,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B231" t="n">
         <v>0</v>
@@ -3462,7 +3476,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -3470,7 +3484,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B233" t="n">
         <v>0</v>
@@ -3478,7 +3492,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
@@ -3486,7 +3500,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B235" t="n">
         <v>1</v>
@@ -3494,7 +3508,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B236" t="n">
         <v>0</v>
@@ -3502,7 +3516,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B237" t="n">
         <v>1</v>
@@ -3510,7 +3524,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
@@ -3518,7 +3532,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B239" t="n">
         <v>0</v>
@@ -3526,7 +3540,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B240" t="n">
         <v>0</v>
@@ -3534,7 +3548,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B241" t="n">
         <v>1</v>
@@ -3542,7 +3556,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B242" t="n">
         <v>1</v>
@@ -3550,7 +3564,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B243" t="n">
         <v>1</v>
@@ -3558,7 +3572,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B244" t="n">
         <v>1</v>
@@ -3566,7 +3580,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B245" t="n">
         <v>0</v>
@@ -3574,7 +3588,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B246" t="n">
         <v>0</v>
@@ -3582,7 +3596,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B247" t="n">
         <v>0</v>
@@ -3590,7 +3604,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B248" t="n">
         <v>1</v>
@@ -3598,7 +3612,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B249" t="n">
         <v>1</v>
@@ -3606,7 +3620,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B250" t="n">
         <v>0</v>
@@ -3614,7 +3628,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B251" t="n">
         <v>0</v>
@@ -3622,7 +3636,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B252" t="n">
         <v>0</v>
@@ -3630,7 +3644,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B253" t="n">
         <v>1</v>
@@ -3638,7 +3652,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B254" t="n">
         <v>0</v>
@@ -3646,7 +3660,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B255" t="n">
         <v>0</v>
@@ -3654,7 +3668,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B256" t="n">
         <v>1</v>
@@ -3662,7 +3676,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B257" t="n">
         <v>0</v>
@@ -3670,7 +3684,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B258" t="n">
         <v>1</v>
@@ -3678,7 +3692,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B259" t="n">
         <v>0</v>
@@ -3686,7 +3700,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B260" t="n">
         <v>1</v>
@@ -3694,7 +3708,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B261" t="n">
         <v>0</v>
@@ -3702,7 +3716,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B262" t="n">
         <v>0</v>
@@ -3710,7 +3724,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B263" t="n">
         <v>1</v>
@@ -3718,7 +3732,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B264" t="n">
         <v>0</v>
@@ -3726,7 +3740,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B265" t="n">
         <v>1</v>
@@ -3734,7 +3748,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B266" t="n">
         <v>1</v>
@@ -3742,7 +3756,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B267" t="n">
         <v>1</v>
@@ -3750,7 +3764,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B268" t="n">
         <v>0</v>
@@ -3758,7 +3772,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B269" t="n">
         <v>0</v>
@@ -3766,7 +3780,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B270" t="n">
         <v>0</v>
@@ -3774,7 +3788,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B271" t="n">
         <v>1</v>
@@ -3782,7 +3796,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B272" t="n">
         <v>1</v>
@@ -3790,7 +3804,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B273" t="n">
         <v>1</v>
@@ -3798,7 +3812,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B274" t="n">
         <v>0</v>
@@ -3806,7 +3820,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B275" t="n">
         <v>0</v>
@@ -3814,7 +3828,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B276" t="n">
         <v>1</v>
@@ -3822,7 +3836,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B277" t="n">
         <v>1</v>
@@ -3830,7 +3844,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B278" t="n">
         <v>1</v>
@@ -3838,7 +3852,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B279" t="n">
         <v>0</v>
@@ -3846,7 +3860,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B280" t="n">
         <v>0</v>
@@ -3854,7 +3868,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B281" t="n">
         <v>1</v>
@@ -3862,7 +3876,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B282" t="n">
         <v>0</v>
@@ -3870,7 +3884,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B283" t="n">
         <v>1</v>
@@ -3878,7 +3892,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -3886,7 +3900,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B285" t="n">
         <v>1</v>
@@ -3894,7 +3908,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B286" t="n">
         <v>1</v>
@@ -3902,7 +3916,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B287" t="n">
         <v>1</v>
@@ -3910,7 +3924,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B288" t="n">
         <v>0</v>
@@ -3918,7 +3932,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B289" t="n">
         <v>0</v>
@@ -3926,7 +3940,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B290" t="n">
         <v>0</v>
@@ -3934,7 +3948,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B291" t="n">
         <v>0</v>
@@ -3942,7 +3956,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B292" t="n">
         <v>1</v>
@@ -3950,7 +3964,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B293" t="n">
         <v>0</v>
@@ -3958,7 +3972,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B294" t="n">
         <v>0</v>
@@ -3966,7 +3980,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B295" t="n">
         <v>0</v>
@@ -3974,7 +3988,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B296" t="n">
         <v>1</v>
@@ -3982,7 +3996,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B297" t="n">
         <v>0</v>
@@ -3990,7 +4004,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B298" t="n">
         <v>0</v>
@@ -3998,7 +4012,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B299" t="n">
         <v>1</v>
@@ -4006,7 +4020,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B300" t="n">
         <v>1</v>
@@ -4014,7 +4028,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B301" t="n">
         <v>1</v>
@@ -4022,7 +4036,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B302" t="n">
         <v>0</v>
@@ -4030,7 +4044,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B303" t="n">
         <v>0</v>
@@ -4038,7 +4052,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B304" t="n">
         <v>1</v>
@@ -4046,7 +4060,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B305" t="n">
         <v>0</v>
@@ -4054,7 +4068,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B306" t="n">
         <v>0</v>
@@ -4062,7 +4076,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B307" t="n">
         <v>0</v>
@@ -4070,7 +4084,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B308" t="n">
         <v>1</v>
@@ -4078,7 +4092,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B309" t="n">
         <v>0</v>
@@ -4086,7 +4100,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B310" t="n">
         <v>1</v>
@@ -4094,7 +4108,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B311" t="n">
         <v>1</v>
@@ -4102,7 +4116,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B312" t="n">
         <v>1</v>
@@ -4110,7 +4124,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B313" t="n">
         <v>0</v>
@@ -4118,7 +4132,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B314" t="n">
         <v>0</v>
@@ -4126,7 +4140,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B315" t="n">
         <v>0</v>
@@ -4134,7 +4148,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B316" t="n">
         <v>1</v>
@@ -4142,7 +4156,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B317" t="n">
         <v>1</v>
@@ -4150,7 +4164,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B318" t="n">
         <v>1</v>
@@ -4158,7 +4172,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B319" t="n">
         <v>1</v>
@@ -4166,7 +4180,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B320" t="n">
         <v>0</v>
@@ -4174,7 +4188,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B321" t="n">
         <v>0</v>
@@ -4182,7 +4196,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B322" t="n">
         <v>1</v>
@@ -4190,7 +4204,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B323" t="n">
         <v>1</v>
@@ -4198,7 +4212,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B324" t="n">
         <v>0</v>
@@ -4206,7 +4220,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B325" t="n">
         <v>0</v>
@@ -4214,7 +4228,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B326" t="n">
         <v>1</v>
@@ -4222,7 +4236,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B327" t="n">
         <v>0</v>
@@ -4230,7 +4244,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B328" t="n">
         <v>1</v>
@@ -4238,7 +4252,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B329" t="n">
         <v>1</v>
@@ -4246,7 +4260,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B330" t="n">
         <v>0</v>
@@ -4254,7 +4268,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B331" t="n">
         <v>0</v>
@@ -4262,7 +4276,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B332" t="n">
         <v>0</v>
@@ -4270,7 +4284,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B333" t="n">
         <v>1</v>
@@ -4278,7 +4292,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B334" t="n">
         <v>1</v>
@@ -4286,7 +4300,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
@@ -4294,7 +4308,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B336" t="n">
         <v>1</v>
@@ -4302,7 +4316,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B337" t="n">
         <v>0</v>
@@ -4310,7 +4324,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B338" t="n">
         <v>1</v>
@@ -4318,7 +4332,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B339" t="n">
         <v>0</v>
@@ -4326,7 +4340,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B340" t="n">
         <v>0</v>
@@ -4334,7 +4348,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B341" t="n">
         <v>1</v>
@@ -4342,7 +4356,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B342" t="n">
         <v>1</v>
@@ -4350,7 +4364,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B343" t="n">
         <v>1</v>
@@ -4358,7 +4372,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B344" t="n">
         <v>1</v>
@@ -4366,7 +4380,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B345" t="n">
         <v>1</v>
@@ -4374,7 +4388,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B346" t="n">
         <v>1</v>
@@ -4382,7 +4396,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B347" t="n">
         <v>0</v>
@@ -4390,7 +4404,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B348" t="n">
         <v>1</v>
@@ -4398,7 +4412,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B349" t="n">
         <v>0</v>
@@ -4406,7 +4420,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B350" t="n">
         <v>1</v>
@@ -4414,7 +4428,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B351" t="n">
         <v>1</v>
@@ -4422,7 +4436,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B352" t="n">
         <v>1</v>
@@ -4430,7 +4444,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B353" t="n">
         <v>0</v>
@@ -4438,7 +4452,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B354" t="n">
         <v>0</v>
@@ -4446,7 +4460,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B355" t="n">
         <v>0</v>
@@ -4454,7 +4468,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B356" t="n">
         <v>1</v>
@@ -4462,7 +4476,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B357" t="n">
         <v>1</v>
@@ -4470,7 +4484,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B358" t="n">
         <v>1</v>
@@ -4478,7 +4492,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B359" t="n">
         <v>1</v>
@@ -4486,7 +4500,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B360" t="n">
         <v>1</v>
@@ -4494,7 +4508,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B361" t="n">
         <v>1</v>
@@ -4502,7 +4516,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B362" t="n">
         <v>0</v>
@@ -4510,7 +4524,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B363" t="n">
         <v>0</v>
@@ -4518,7 +4532,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B364" t="n">
         <v>1</v>
@@ -4526,7 +4540,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B365" t="n">
         <v>1</v>
@@ -4534,7 +4548,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B366" t="n">
         <v>1</v>
@@ -4542,7 +4556,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B367" t="n">
         <v>0</v>
@@ -4550,7 +4564,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B368" t="n">
         <v>0</v>
@@ -4558,7 +4572,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B369" t="n">
         <v>1</v>
@@ -4566,7 +4580,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B370" t="n">
         <v>0</v>
@@ -4574,7 +4588,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B371" t="n">
         <v>1</v>
@@ -4582,7 +4596,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B372" t="n">
         <v>0</v>
@@ -4590,7 +4604,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B373" t="n">
         <v>0</v>
@@ -4598,7 +4612,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B374" t="n">
         <v>0</v>
@@ -4606,7 +4620,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B375" t="n">
         <v>0</v>
@@ -4614,7 +4628,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B376" t="n">
         <v>1</v>
@@ -4622,7 +4636,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -4630,7 +4644,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -4638,7 +4652,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B379" t="n">
         <v>1</v>
@@ -4646,7 +4660,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B380" t="n">
         <v>1</v>
@@ -4654,7 +4668,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B381" t="n">
         <v>0</v>
